--- a/thesis/Result_Matrix.xlsx
+++ b/thesis/Result_Matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>client-server</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Audio and video stream handling included</t>
+  </si>
+  <si>
+    <t>Communicate verbally</t>
+  </si>
+  <si>
+    <t>Point to objects</t>
+  </si>
+  <si>
+    <t>Independent of operating system and hardware platforms</t>
+  </si>
+  <si>
+    <t>Multiple audio and video codecs integrated</t>
+  </si>
+  <si>
+    <t>Integrated support for gestures</t>
+  </si>
+  <si>
+    <t>Pause video feed</t>
   </si>
 </sst>
 </file>
@@ -2108,7 +2126,7 @@
   <dimension ref="B1:I43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2277,8 +2295,36 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="7:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G22"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="9:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I43"/>

--- a/thesis/Result_Matrix.xlsx
+++ b/thesis/Result_Matrix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>client-server</t>
   </si>
@@ -51,15 +51,9 @@
     <t>Web-based</t>
   </si>
   <si>
-    <t>WebSockets</t>
-  </si>
-  <si>
     <t>peer-to-peer</t>
   </si>
   <si>
-    <t>WebRTC</t>
-  </si>
-  <si>
     <t>Access to OS functions (device storage, sensors)</t>
   </si>
   <si>
@@ -72,18 +66,12 @@
     <t>Desktop</t>
   </si>
   <si>
-    <t>Java Sockets</t>
-  </si>
-  <si>
     <t>OS independence</t>
   </si>
   <si>
     <t>No special knowledge about telecommunication technology required</t>
   </si>
   <si>
-    <t>Audio and video stream handling included</t>
-  </si>
-  <si>
     <t>Communicate verbally</t>
   </si>
   <si>
@@ -100,6 +88,24 @@
   </si>
   <si>
     <t>Pause video feed</t>
+  </si>
+  <si>
+    <t>Java, WebSockets</t>
+  </si>
+  <si>
+    <t>Java, Sockets</t>
+  </si>
+  <si>
+    <t>Node.js, WebRTC</t>
+  </si>
+  <si>
+    <t>Audio and video stream functionality included</t>
+  </si>
+  <si>
+    <t>Hardware independent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runnable on different </t>
   </si>
 </sst>
 </file>
@@ -2123,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I43"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2135,19 +2141,19 @@
     <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.85546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="18.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>9</v>
@@ -2156,7 +2162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="6" t="s">
         <v>7</v>
@@ -2169,26 +2175,26 @@
         <v>0</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
@@ -2198,17 +2204,20 @@
       <c r="F5" s="8"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="17"/>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
         <v>1</v>
       </c>
@@ -2217,18 +2226,24 @@
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="G7" s="17"/>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="17"/>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
         <v>4</v>
       </c>
@@ -2237,8 +2252,11 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="17"/>
+      <c r="K9" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2265,11 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="17"/>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>2</v>
       </c>
@@ -2257,10 +2278,13 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="17"/>
+      <c r="K11" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="12" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -2268,9 +2292,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="2:7" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -2278,61 +2302,48 @@
       <c r="F13" s="20"/>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="9:9" ht="15" x14ac:dyDescent="0.25">
       <c r="I43"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B7:D7"/>
